--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-74155.58041728621</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37466280.04117329</v>
+        <v>29647761.43165109</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3497865.00187205</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H11" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I11" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J11" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K11" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L11" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N11" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O11" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P11" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R11" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S11" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T11" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23349,49 +23351,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H12" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I12" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J12" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K12" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R12" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S12" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T12" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U12" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23428,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H13" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I13" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J13" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K13" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M13" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N13" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O13" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q13" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R13" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S13" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23507,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H14" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I14" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J14" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K14" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O14" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P14" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q14" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R14" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S14" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T14" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23586,49 +23588,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H15" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I15" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J15" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R15" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S15" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T15" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U15" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23665,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H16" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I16" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J16" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K16" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M16" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O16" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q16" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R16" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S16" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T16" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23744,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H17" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I17" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L17" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O17" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P17" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R17" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S17" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T17" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23823,49 +23825,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H18" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I18" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J18" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R18" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S18" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T18" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U18" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23902,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I19" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J19" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K19" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M19" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O19" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q19" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R19" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S19" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T19" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23981,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H20" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I20" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J20" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K20" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L20" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M20" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O20" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P20" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R20" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S20" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T20" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24060,49 +24062,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H21" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I21" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R21" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S21" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T21" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U21" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24139,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H22" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I22" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J22" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K22" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M22" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O22" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q22" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R22" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S22" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24218,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H23" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I23" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J23" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K23" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L23" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M23" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O23" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P23" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q23" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R23" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S23" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T23" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24297,49 +24299,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H24" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I24" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J24" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R24" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S24" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T24" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U24" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24376,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H25" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I25" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J25" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K25" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L25" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M25" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N25" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O25" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P25" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q25" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R25" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S25" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T25" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24455,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H26" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I26" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J26" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K26" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L26" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M26" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N26" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O26" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P26" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q26" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R26" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S26" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T26" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24534,49 +24536,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H27" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I27" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J27" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R27" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S27" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T27" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U27" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24613,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H28" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I28" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K28" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M28" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N28" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O28" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P28" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q28" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R28" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S28" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T28" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24692,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H29" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I29" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J29" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K29" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L29" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M29" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O29" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P29" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q29" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S29" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T29" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24771,49 +24773,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H30" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I30" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J30" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R30" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S30" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T30" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U30" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24850,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H31" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I31" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K31" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M31" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N31" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O31" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P31" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q31" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R31" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S31" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T31" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24929,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H32" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I32" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J32" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K32" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214526</v>
       </c>
       <c r="L32" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M32" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O32" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P32" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q32" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R32" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S32" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T32" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25008,49 +25010,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H33" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I33" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J33" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L33" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689194</v>
       </c>
       <c r="M33" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P33" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700126</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R33" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S33" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T33" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U33" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25087,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H34" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I34" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J34" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K34" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L34" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M34" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N34" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O34" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P34" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q34" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R34" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S34" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T34" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25166,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H35" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I35" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J35" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K35" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L35" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M35" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O35" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P35" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q35" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R35" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S35" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T35" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25245,49 +25247,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H36" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I36" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J36" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K36" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L36" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M36" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R36" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S36" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T36" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U36" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25324,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H37" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I37" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J37" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K37" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L37" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M37" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N37" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O37" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P37" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q37" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R37" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S37" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T37" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25403,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H38" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I38" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J38" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K38" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L38" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M38" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O38" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P38" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q38" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R38" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S38" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T38" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25482,49 +25484,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H39" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I39" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J39" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K39" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L39" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M39" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R39" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S39" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T39" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U39" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25561,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H40" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I40" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J40" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K40" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L40" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M40" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N40" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O40" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P40" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q40" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R40" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S40" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T40" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H41" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I41" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J41" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K41" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L41" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M41" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N41" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O41" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P41" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q41" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R41" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S41" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T41" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U41" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,49 +25721,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H42" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I42" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J42" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K42" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L42" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M42" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P42" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R42" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S42" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T42" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U42" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H43" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I43" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J43" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K43" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L43" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M43" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N43" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O43" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P43" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q43" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R43" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S43" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T43" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>426.502040297739</v>
+        <v>424.5639797766032</v>
       </c>
       <c r="H44" t="n">
-        <v>372.7472703061117</v>
+        <v>352.8991079940298</v>
       </c>
       <c r="I44" t="n">
-        <v>341.7654321274525</v>
+        <v>267.0483538863648</v>
       </c>
       <c r="J44" t="n">
-        <v>294.1995948558653</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K44" t="n">
-        <v>357.6460079480934</v>
+        <v>111.1174419326662</v>
       </c>
       <c r="L44" t="n">
-        <v>383.1204243262292</v>
+        <v>77.27993863709247</v>
       </c>
       <c r="M44" t="n">
-        <v>374.3126289943182</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N44" t="n">
-        <v>372.7962283444602</v>
+        <v>26.98324440689777</v>
       </c>
       <c r="O44" t="n">
-        <v>373.9095935602409</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P44" t="n">
-        <v>375.753618102313</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q44" t="n">
-        <v>361.2467460459804</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R44" t="n">
-        <v>350.3264989479647</v>
+        <v>228.5848047371684</v>
       </c>
       <c r="S44" t="n">
-        <v>287.8980161538978</v>
+        <v>243.7344620285159</v>
       </c>
       <c r="T44" t="n">
-        <v>226.3641587569061</v>
+        <v>217.8802988256342</v>
       </c>
       <c r="U44" t="n">
-        <v>248.0428861901385</v>
+        <v>247.8878413484477</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>170.3511911174186</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H45" t="n">
-        <v>156.5586620955882</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I45" t="n">
-        <v>161.7238675</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J45" t="n">
-        <v>206.1111433333334</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K45" t="n">
-        <v>223.9923383333334</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L45" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>217.7084120482866</v>
+        <v>19.69571729742785</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.470382889785</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R45" t="n">
-        <v>236.7291939414415</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S45" t="n">
-        <v>239.7221010586735</v>
+        <v>220.4611390882135</v>
       </c>
       <c r="T45" t="n">
-        <v>244.7196483586449</v>
+        <v>240.5399968708402</v>
       </c>
       <c r="U45" t="n">
-        <v>258.0465074253145</v>
+        <v>257.978286780791</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>170.5257400672264</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H46" t="n">
-        <v>177.0546849705086</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I46" t="n">
-        <v>197.7486781736251</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J46" t="n">
-        <v>206.3675598390187</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K46" t="n">
-        <v>209.64654452712</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L46" t="n">
-        <v>219.1875989570122</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M46" t="n">
-        <v>225.7543989148582</v>
+        <v>89.48026908651903</v>
       </c>
       <c r="N46" t="n">
-        <v>207.4890097560039</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O46" t="n">
-        <v>224.9918749842445</v>
+        <v>102.1135956493829</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8080065798648</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q46" t="n">
-        <v>246.1956276478495</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R46" t="n">
-        <v>274.8494840618493</v>
+        <v>235.7604713534479</v>
       </c>
       <c r="S46" t="n">
-        <v>265.4963749257153</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T46" t="n">
-        <v>218.2736753476266</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9405845523567</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>399790.7059947829</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>449783.771961157</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51585.89754771391</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51585.8975477139</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>58036.61573692347</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>340477.4817237768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>38802.027054518</v>
       </c>
     </row>
     <row r="4">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>10509.61769098912</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-298130.2963809941</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42347.18534278272</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>42347.18534278271</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8724.970991416347</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>482.0925546325286</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>58.29841679164815</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>144.5989857550651</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.457924978486244</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.9115572021483087</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>86.12216531349439</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>197.9238565454036</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.794601095219365</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>88.78834560010573</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>305.8404856891368</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>345.8129839375625</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.036953796756759</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>64.38209625828374</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>7.729287187387103</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>61.46284913733073</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>136.2741298283392</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.08901270840141</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74155.58041728621</v>
+        <v>-243672.5039292835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29647761.43165109</v>
+        <v>28170964.55874667</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3497865.00187205</v>
+        <v>4167211.945759312</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H11" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I11" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J11" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>140.9296117214527</v>
+        <v>91.8812048361512</v>
       </c>
       <c r="L11" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M11" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N11" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R11" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S11" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117803</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U11" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23351,22 +23351,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H12" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I12" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L12" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23375,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S12" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T12" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23430,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H13" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I13" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J13" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K13" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>105.5690853463604</v>
+        <v>79.8543393358629</v>
       </c>
       <c r="M13" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N13" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R13" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S13" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T13" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029073</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23509,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H14" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I14" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J14" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L14" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M14" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N14" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S14" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U14" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23588,22 +23588,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H15" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I15" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J15" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K15" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L15" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S15" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T15" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23667,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H16" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I16" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J16" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L16" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M16" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N16" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R16" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S16" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T16" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23746,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H17" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I17" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J17" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L17" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M17" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N17" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S17" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U17" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23825,22 +23825,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H18" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I18" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J18" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K18" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L18" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S18" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T18" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23904,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H19" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I19" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J19" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K19" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L19" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M19" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N19" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P19" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R19" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S19" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T19" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23983,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H20" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I20" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J20" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K20" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L20" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M20" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S20" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U20" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24062,22 +24062,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H21" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I21" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J21" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K21" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L21" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S21" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T21" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24141,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H22" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I22" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J22" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K22" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L22" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M22" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N22" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P22" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R22" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S22" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T22" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24220,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H23" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I23" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J23" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L23" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M23" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N23" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P23" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S23" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U23" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24299,22 +24299,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H24" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I24" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J24" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K24" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L24" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S24" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T24" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24378,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H25" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I25" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J25" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K25" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M25" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N25" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O25" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R25" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S25" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T25" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24457,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H26" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I26" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J26" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K26" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L26" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M26" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N26" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R26" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S26" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U26" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24536,22 +24536,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H27" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I27" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J27" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K27" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L27" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24560,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R27" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S27" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T27" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24615,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H28" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I28" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J28" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K28" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L28" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M28" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N28" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O28" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P28" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R28" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S28" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T28" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24694,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H29" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I29" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K29" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L29" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M29" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N29" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P29" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R29" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S29" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U29" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24773,22 +24773,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H30" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I30" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J30" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K30" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L30" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S30" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T30" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24852,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H31" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I31" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J31" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K31" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L31" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M31" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N31" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O31" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P31" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R31" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S31" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T31" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24931,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H32" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I32" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K32" t="n">
-        <v>140.9296117214526</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L32" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M32" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N32" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P32" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R32" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S32" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U32" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25010,22 +25010,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H33" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I33" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J33" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K33" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L33" t="n">
-        <v>27.22701059689194</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.64096701700126</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S33" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T33" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25089,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H34" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I34" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J34" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K34" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L34" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N34" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O34" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P34" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R34" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S34" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T34" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25168,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H35" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I35" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J35" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K35" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L35" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M35" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N35" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P35" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S35" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U35" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25247,22 +25247,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H36" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I36" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J36" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K36" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L36" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S36" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T36" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25326,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H37" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I37" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J37" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K37" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L37" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M37" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O37" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P37" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R37" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S37" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T37" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25405,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H38" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I38" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J38" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L38" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M38" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N38" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P38" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S38" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U38" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25484,22 +25484,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H39" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I39" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J39" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L39" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S39" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T39" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25563,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H40" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I40" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J40" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K40" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L40" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M40" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N40" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P40" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R40" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S40" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T40" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25642,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H41" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I41" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J41" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K41" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L41" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M41" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P41" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R41" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S41" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U41" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25721,22 +25721,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H42" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I42" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J42" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L42" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S42" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T42" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H43" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I43" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J43" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K43" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L43" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M43" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O43" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P43" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q43" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R43" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S43" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T43" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.5639797766032</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H44" t="n">
-        <v>352.8991079940298</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I44" t="n">
-        <v>267.0483538863648</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J44" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>111.1174419326662</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L44" t="n">
-        <v>77.27993863709247</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M44" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N44" t="n">
-        <v>26.98324440689777</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P44" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R44" t="n">
-        <v>228.5848047371684</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S44" t="n">
-        <v>243.7344620285159</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8802988256342</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8878413484477</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.3142373206618</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H45" t="n">
-        <v>146.5438714795426</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I45" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.69571729742785</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R45" t="n">
-        <v>172.3470976831577</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S45" t="n">
-        <v>220.4611390882135</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T45" t="n">
-        <v>240.5399968708402</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U45" t="n">
-        <v>257.978286780791</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.6563928375612</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H46" t="n">
-        <v>169.3253977831214</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I46" t="n">
-        <v>171.6050360306021</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J46" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K46" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L46" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M46" t="n">
-        <v>89.48026908651903</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N46" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>102.1135956493829</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P46" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>173.3996518983377</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R46" t="n">
-        <v>235.7604713534479</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S46" t="n">
-        <v>250.3460236596406</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T46" t="n">
-        <v>214.5591917299661</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9405845523567</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399790.7059947829</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449783.771961157</v>
+        <v>480257.9665920421</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="F2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="G2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="H2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="I2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="J2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="K2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="L2" t="n">
-        <v>51585.89754771391</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="M2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="N2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="O2" t="n">
-        <v>51585.8975477139</v>
+        <v>61968.76988284418</v>
       </c>
       <c r="P2" t="n">
-        <v>58036.61573692347</v>
+        <v>61968.76988284418</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>340477.4817237768</v>
+        <v>417536.1554080973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>38802.027054518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="F5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="G5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="H5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="I5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="J5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="K5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="L5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="M5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="N5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="O5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="P5" t="n">
-        <v>10509.61769098912</v>
+        <v>11329.66666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="E6" t="n">
-        <v>-298130.2963809941</v>
+        <v>-384128.4759826396</v>
       </c>
       <c r="F6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545765</v>
       </c>
       <c r="G6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545765</v>
       </c>
       <c r="H6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545765</v>
       </c>
       <c r="I6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="J6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="K6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="L6" t="n">
-        <v>42347.18534278272</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="M6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="N6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="O6" t="n">
-        <v>42347.18534278271</v>
+        <v>33407.67942545767</v>
       </c>
       <c r="P6" t="n">
-        <v>8724.970991416347</v>
+        <v>33407.67942545767</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="G3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="H3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="I3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="J3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="K3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="L3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="M3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="N3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="O3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="P3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>58.29841679164815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H11" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696482</v>
       </c>
       <c r="I11" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J11" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173252</v>
       </c>
       <c r="K11" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119422</v>
       </c>
       <c r="L11" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M11" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N11" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P11" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S11" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T11" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H12" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I12" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J12" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033754</v>
       </c>
       <c r="K12" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L12" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31855,25 +31855,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S12" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T12" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.0735437943480169</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H13" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033027</v>
       </c>
       <c r="I13" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J13" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K13" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L13" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M13" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N13" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O13" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P13" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R13" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S13" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792974</v>
       </c>
       <c r="T13" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719343</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I14" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J14" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K14" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L14" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M14" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N14" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R14" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S14" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T14" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H15" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I15" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J15" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K15" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L15" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32092,25 +32092,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S15" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T15" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H16" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I16" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J16" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K16" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L16" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M16" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N16" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O16" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P16" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R16" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T16" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H17" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I17" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J17" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K17" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L17" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M17" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N17" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P17" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R17" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S17" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T17" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H18" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I18" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J18" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K18" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L18" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32329,25 +32329,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S18" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T18" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H19" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I19" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J19" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K19" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L19" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M19" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N19" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O19" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P19" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R19" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S19" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T19" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H20" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I20" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J20" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K20" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L20" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M20" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N20" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P20" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R20" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S20" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T20" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H21" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I21" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J21" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K21" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L21" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32566,25 +32566,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S21" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T21" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H22" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I22" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J22" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K22" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M22" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N22" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O22" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P22" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R22" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S22" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T22" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I23" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J23" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K23" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L23" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M23" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N23" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R23" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S23" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T23" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H24" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I24" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J24" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K24" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L24" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32803,25 +32803,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S24" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T24" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H25" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I25" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J25" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K25" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M25" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N25" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O25" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P25" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R25" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T25" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H26" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I26" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J26" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K26" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L26" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M26" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N26" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P26" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R26" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S26" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T26" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H27" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I27" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J27" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K27" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L27" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33040,25 +33040,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T27" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H28" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I28" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J28" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K28" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L28" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M28" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N28" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O28" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P28" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R28" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S28" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T28" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H29" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I29" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J29" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K29" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L29" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M29" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N29" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P29" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R29" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S29" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T29" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H30" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I30" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J30" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K30" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L30" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33277,25 +33277,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T30" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H31" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I31" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J31" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K31" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L31" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M31" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N31" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O31" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P31" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R31" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S31" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T31" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H32" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I32" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J32" t="n">
-        <v>144.5989857550651</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K32" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L32" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M32" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N32" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P32" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R32" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S32" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T32" t="n">
-        <v>7.457924978486244</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9115572021483087</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H33" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I33" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J33" t="n">
-        <v>86.12216531349439</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K33" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L33" t="n">
-        <v>197.9238565454036</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33514,25 +33514,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T33" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H34" t="n">
-        <v>6.794601095219365</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I34" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K34" t="n">
-        <v>88.78834560010573</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L34" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M34" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N34" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O34" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P34" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R34" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S34" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T34" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H35" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I35" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J35" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K35" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L35" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M35" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N35" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P35" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R35" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S35" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T35" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H36" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I36" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J36" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K36" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L36" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33751,25 +33751,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S36" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T36" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H37" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I37" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J37" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K37" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L37" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M37" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N37" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O37" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P37" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R37" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S37" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T37" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H38" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I38" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J38" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K38" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L38" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M38" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N38" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P38" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R38" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S38" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T38" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H39" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I39" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J39" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K39" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L39" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33988,25 +33988,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S39" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T39" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H40" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I40" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J40" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K40" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L40" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M40" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N40" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O40" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P40" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R40" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S40" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T40" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H41" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I41" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K41" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L41" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M41" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P41" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R41" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S41" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T41" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H42" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I42" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K42" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L42" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34225,25 +34225,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S42" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T42" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H43" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I43" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J43" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K43" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M43" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N43" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O43" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P43" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R43" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S43" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T43" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I44" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8404856891368</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M44" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N44" t="n">
-        <v>345.8129839375625</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.036953796756759</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H45" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K45" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34465,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R45" t="n">
-        <v>64.38209625828374</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S45" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H46" t="n">
-        <v>7.729287187387103</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I46" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>61.46284913733073</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>136.2741298283392</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R46" t="n">
-        <v>39.08901270840141</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T46" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
